--- a/target/classes/com/brainware/qa/testdata/BFISCMTestData.xlsx
+++ b/target/classes/com/brainware/qa/testdata/BFISCMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="13416" windowHeight="4344" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="14712" windowHeight="3288" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <oleSize ref="A1:I12"/>
+  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
